--- a/docs/管理表/【勤怠管理システム】クラス・メソッド一覧表.xlsx
+++ b/docs/管理表/【勤怠管理システム】クラス・メソッド一覧表.xlsx
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="画面設計書" sheetId="4" r:id="rId3"/>
+    <sheet name="一覧表" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>更新履歴</t>
   </si>
@@ -146,27 +146,12 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ログインユーザの情報のgetter、setterクラス。</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>loadUserByUsername</t>
   </si>
   <si>
     <t>getAuthorities</t>
   </si>
   <si>
-    <t>ユーザが保持する権限（ロール）を取得する。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>社員番号に該当したユーザ情報を取得する。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -205,7 +190,62 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>定数用クラス。</t>
+    <t>Location</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SiteInfo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Supplier</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>UnitInfo</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>WorkReportDaily</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>WorkReportMonthly</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CreateZipService</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ExcelBuildService</t>
+  </si>
+  <si>
+    <t>createZipFile</t>
+  </si>
+  <si>
+    <t>createFolder</t>
+  </si>
+  <si>
+    <t>ResponseEntity</t>
+  </si>
+  <si>
+    <t>getExcel</t>
+  </si>
+  <si>
+    <t>定数用クラス</t>
     <rPh sb="0" eb="2">
       <t>テイスウ</t>
     </rPh>
@@ -216,10 +256,572 @@
   </si>
   <si>
     <t>認証情報からユーザ情報を取得する。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Location</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員番号に該当したユーザ情報を取得する。</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザが保持する権限（ロール）を取得する。</t>
+    <rPh sb="16" eb="18">
+      <t>シュト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>認証のための各種設定を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Bcryptでエンコードを行うためのインスタンスを返す。</t>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面用 Excelファイル作成。</t>
+    <rPh sb="0" eb="4">
+      <t>シャイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面でチェックボックスを選択した社員の勤務表(Excelファイル)をzipに固めてダウンロードする。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>zipファイル作成用一時フォルダの作成。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HttpResponseの設定 (zipファイルをダウンロードする設定)。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>勤務報告書画面用 Excelファイル作成。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>認証の制限を無視する場所を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パスワードをハッシュ化する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getter / setter</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取引先情報クラス</t>
+    <rPh sb="0" eb="3">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>サイト情報クラス</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユニット情報クラス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザクラス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>勤務報告書_日次クラス</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>勤務報告書_月次クラス</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲツジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ロケーションクラス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>サイトクラス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>LocationService</t>
+  </si>
+  <si>
+    <t>findLocationInfo</t>
+  </si>
+  <si>
+    <t>SiteInfoService</t>
+  </si>
+  <si>
+    <t>registSiteInfo</t>
+  </si>
+  <si>
+    <t>findSiteInfo</t>
+  </si>
+  <si>
+    <t>updateSiteInfo</t>
+  </si>
+  <si>
+    <t>findLocatist</t>
+  </si>
+  <si>
+    <t>SiteService</t>
+  </si>
+  <si>
+    <t>SupplierService</t>
+  </si>
+  <si>
+    <t>supplierCatalog</t>
+  </si>
+  <si>
+    <t>registUnitInfo</t>
+  </si>
+  <si>
+    <t>findUnitInfo</t>
+  </si>
+  <si>
+    <t>UnitInfoService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>findEmployeeName</t>
+  </si>
+  <si>
+    <t>findAccountByUserId</t>
+  </si>
+  <si>
+    <t>findEmployeeCatalog</t>
+  </si>
+  <si>
+    <t>findEmployeeUserId</t>
+  </si>
+  <si>
+    <t>updateUserPass</t>
+  </si>
+  <si>
+    <t>searchUser</t>
+  </si>
+  <si>
+    <t>registeringUser</t>
+  </si>
+  <si>
+    <t>findUser</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>findMailAddress</t>
+  </si>
+  <si>
+    <t>WorkReportDailyService</t>
+  </si>
+  <si>
+    <t>findEmployeeWorkRecordDaily</t>
+  </si>
+  <si>
+    <t>registWorkReportDaily</t>
+  </si>
+  <si>
+    <t>updateWorkReportDaily</t>
+  </si>
+  <si>
+    <t>WorkReportMonthlyService</t>
+  </si>
+  <si>
+    <t>findEmployeeWorkRecordMonthly</t>
+  </si>
+  <si>
+    <t>registWorkReportMonthly</t>
+  </si>
+  <si>
+    <t>updateWorkReportMonthly</t>
+  </si>
+  <si>
+    <t>determineWorkReport</t>
+  </si>
+  <si>
+    <t>editWorkReport</t>
+  </si>
+  <si>
+    <t>ログインユーザ情報クラス</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK01001Controller</t>
+  </si>
+  <si>
+    <t>loginForm</t>
+  </si>
+  <si>
+    <t>loginInput</t>
+  </si>
+  <si>
+    <t>loginConf</t>
+  </si>
+  <si>
+    <t>KK01001Form</t>
+  </si>
+  <si>
+    <t>ログイン画面用クラス</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン画面のパスを返す。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK02001Controller</t>
+  </si>
+  <si>
+    <t>setForm</t>
+  </si>
+  <si>
+    <t>workCalendar</t>
+  </si>
+  <si>
+    <t>backMenu</t>
+  </si>
+  <si>
+    <t>ログイン画面で使用するフォームを返す。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>月別一覧画面で使用するフォームを返す。</t>
+    <rPh sb="0" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>現在月から過去12ヶ月のリストをYYYY年MM月の形で表示する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK02001Form</t>
+  </si>
+  <si>
+    <t>月別一覧画面用クラス</t>
+    <rPh sb="0" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK03001Controller</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>empInput</t>
+  </si>
+  <si>
+    <t>backEmployeeList</t>
+  </si>
+  <si>
+    <t>downloadZip</t>
+  </si>
+  <si>
+    <t>KK03001Form</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面用クラス</t>
+    <rPh sb="0" eb="4">
+      <t>シャインイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK04001Controller</t>
+  </si>
+  <si>
+    <t>workReportForm</t>
+  </si>
+  <si>
+    <t>enterKK04001</t>
+  </si>
+  <si>
+    <t>insertWorkDailyReport</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>getoutFromKK04001</t>
+  </si>
+  <si>
+    <t>downloadExcel</t>
+  </si>
+  <si>
+    <t>workbookToResponseEntity</t>
+  </si>
+  <si>
+    <t>KK04001Form</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>勤務報告書画面用クラス</t>
+    <rPh sb="0" eb="5">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK05001Controller</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>menuInput</t>
+  </si>
+  <si>
+    <t>inputWorkReport</t>
+  </si>
+  <si>
+    <t>passChange</t>
+  </si>
+  <si>
+    <t>registUser</t>
+  </si>
+  <si>
+    <t>KK06001Controller</t>
+  </si>
+  <si>
+    <t>changePasswordForm</t>
+  </si>
+  <si>
+    <t>enterKK06001</t>
+  </si>
+  <si>
+    <t>updateChangePassword</t>
+  </si>
+  <si>
+    <t>getoutFromKK06001</t>
+  </si>
+  <si>
+    <t>KK06001Form</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パスワード変更画面用クラス</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KK06002Controller</t>
+  </si>
+  <si>
+    <t>registForm</t>
+  </si>
+  <si>
+    <t>registerInput</t>
+  </si>
+  <si>
+    <t>getoutFromKK06002</t>
+  </si>
+  <si>
+    <t>searchEmployee</t>
+  </si>
+  <si>
+    <t>clearKK06002</t>
+  </si>
+  <si>
+    <t>getSelectData</t>
+  </si>
+  <si>
+    <t>KK06002Form</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面用クラス</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>empForm</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>月別一覧画面へ遷移する。</t>
+    <rPh sb="0" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面で使用するフォームを返す。</t>
+    <rPh sb="0" eb="4">
+      <t>シャイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面のパスを返す。</t>
+    <rPh sb="0" eb="4">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>社員一覧画面でチェックボックスがオンになっているユーザの勤務表をZipに固めてダウンロードする。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -324,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -826,19 +1428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -875,21 +1464,6 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -950,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,264 +1589,279 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2565,23 +3154,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2602,21 +3191,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2637,21 +3226,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2777,25 +3366,25 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2816,21 +3405,21 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2991,29 +3580,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32" t="s">
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="30" t="s">
+      <c r="R16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32" t="s">
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -3034,29 +3623,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="34">
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="60">
         <v>44188</v>
       </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="34">
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="60">
         <v>44188</v>
       </c>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3421,99 +4010,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="23" customFormat="1" ht="18.75">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="85" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="62" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63" t="str">
+      <c r="W1" s="76"/>
+      <c r="X1" s="77" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="62" t="s">
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="61">
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="75">
         <f>表紙!M17</f>
         <v>44188</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
     </row>
     <row r="2" spans="1:33" s="23" customFormat="1" ht="18.75">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="62" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63" t="str">
+      <c r="W2" s="76"/>
+      <c r="X2" s="77" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="62" t="s">
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="61">
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="75">
         <f>表紙!U17</f>
         <v>44188</v>
       </c>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:33" ht="15.95" customHeight="1">
       <c r="A3" s="15"/>
@@ -3624,682 +4213,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="40" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="40" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="40" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="42"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="105"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="71">
+      <c r="B7" s="68">
         <v>1</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="66">
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="94">
         <v>44188</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="43" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="45"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="99"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="45"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="99"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="45"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="45"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="45"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
       <c r="AF11" s="20"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="45"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="45"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="45"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
       <c r="AF14" s="20"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="45"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="45"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="45"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="45"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="45"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1">
       <c r="A21" s="19"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
       <c r="AF21" s="20"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="37"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="102"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="7"/>
     </row>
@@ -4375,76 +4964,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:U2"/>
-    <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="I24:AB24"/>
@@ -4461,6 +4980,76 @@
     <mergeCell ref="AC16:AE16"/>
     <mergeCell ref="AC17:AE17"/>
     <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:U2"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
@@ -4473,530 +5062,998 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.75" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="22" customWidth="1"/>
     <col min="6" max="16384" width="3.5" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="82"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A10" s="44"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A14" s="44"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="24" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="101" t="s">
+      <c r="B15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="24" customFormat="1" ht="18.75">
+      <c r="A16" s="43"/>
+      <c r="B16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A17" s="43"/>
+      <c r="B17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A18" s="43"/>
+      <c r="B18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A19" s="43"/>
+      <c r="B19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A20" s="43"/>
+      <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A9" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="101"/>
-    </row>
-    <row r="10" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A10" s="104"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="101"/>
-    </row>
-    <row r="11" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A11" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="101"/>
-    </row>
-    <row r="12" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A12" s="103"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="101"/>
-    </row>
-    <row r="13" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A13" s="103"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="101"/>
-    </row>
-    <row r="14" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A14" s="104"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="101"/>
-    </row>
-    <row r="15" spans="1:5" s="81" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="81" customFormat="1" ht="18.75">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85" t="s">
+      <c r="C20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A21" s="43"/>
+      <c r="B21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="101"/>
-    </row>
-    <row r="17" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="101"/>
-    </row>
-    <row r="18" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="101"/>
-    </row>
-    <row r="20" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="101"/>
-    </row>
-    <row r="21" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="101"/>
-    </row>
-    <row r="22" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="101"/>
-    </row>
-    <row r="23" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="101"/>
-    </row>
-    <row r="24" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="101"/>
-    </row>
-    <row r="25" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="101"/>
-    </row>
-    <row r="26" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="101"/>
-    </row>
-    <row r="27" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="101"/>
-    </row>
-    <row r="28" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="101"/>
-    </row>
-    <row r="29" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="101"/>
-    </row>
-    <row r="30" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="101"/>
-    </row>
-    <row r="31" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="101"/>
-    </row>
-    <row r="32" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="101"/>
-    </row>
-    <row r="33" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="101"/>
-    </row>
-    <row r="34" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="101"/>
-    </row>
-    <row r="35" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="101"/>
-    </row>
-    <row r="36" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="101"/>
-    </row>
-    <row r="37" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="101"/>
-    </row>
-    <row r="38" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="101"/>
-    </row>
-    <row r="39" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="101"/>
-    </row>
-    <row r="40" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="101"/>
-    </row>
-    <row r="41" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="101"/>
-    </row>
-    <row r="42" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="101"/>
-    </row>
-    <row r="43" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="101"/>
-    </row>
-    <row r="44" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="101"/>
-    </row>
-    <row r="45" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="101"/>
-    </row>
-    <row r="46" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="101"/>
-    </row>
-    <row r="47" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A47" s="84"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="108"/>
-    </row>
-    <row r="48" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A48" s="84"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="101"/>
-    </row>
-    <row r="49" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A49" s="84"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="101"/>
-    </row>
-    <row r="50" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A50" s="84"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="101"/>
-    </row>
-    <row r="51" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="101"/>
-    </row>
-    <row r="52" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="101"/>
-    </row>
-    <row r="53" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="101"/>
-    </row>
-    <row r="54" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="101"/>
-    </row>
-    <row r="55" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A55" s="84"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="101"/>
-    </row>
-    <row r="56" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A56" s="84"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="101"/>
-    </row>
-    <row r="57" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A57" s="84"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="101"/>
-    </row>
-    <row r="58" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A58" s="84"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="101"/>
-    </row>
-    <row r="59" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A59" s="84"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="101"/>
-    </row>
-    <row r="60" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A60" s="84"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="101"/>
-    </row>
-    <row r="61" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A61" s="84"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="101"/>
-    </row>
-    <row r="62" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="101"/>
-    </row>
-    <row r="63" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A63" s="84"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="101"/>
-    </row>
-    <row r="64" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A64" s="84"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="101"/>
-    </row>
-    <row r="65" spans="1:4" s="81" customFormat="1" ht="18.75">
-      <c r="A65" s="94"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="109"/>
+      <c r="C21" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A22" s="43"/>
+      <c r="B22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A23" s="44"/>
+      <c r="B23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="24" customFormat="1" ht="37.5">
+      <c r="A24" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A25" s="43"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A26" s="43"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A28" s="43"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A29" s="43"/>
+      <c r="B29" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A30" s="43"/>
+      <c r="B30" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A32" s="43"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A33" s="43"/>
+      <c r="B33" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A34" s="43"/>
+      <c r="B34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A37" s="43"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A38" s="43"/>
+      <c r="B38" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="41"/>
+    </row>
+    <row r="39" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A44" s="43"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A45" s="43"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A46" s="43"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A47" s="43"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A48" s="43"/>
+      <c r="B48" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A49" s="43"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A50" s="43"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="41"/>
+    </row>
+    <row r="51" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A51" s="43"/>
+      <c r="B51" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A52" s="43"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="41"/>
+    </row>
+    <row r="53" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A53" s="43"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A54" s="43"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="41"/>
+    </row>
+    <row r="55" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A55" s="44"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A56" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A57" s="114"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A58" s="114"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A59" s="114"/>
+      <c r="B59" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A60" s="114"/>
+      <c r="B60" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A61" s="114"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A62" s="114"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A63" s="114"/>
+      <c r="B63" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A64" s="114"/>
+      <c r="B64" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="24" customFormat="1" ht="18.75">
+      <c r="A65" s="114"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
-      <c r="A66" s="96"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="110"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75">
-      <c r="A67" s="96"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="110"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="37.5">
+      <c r="A67" s="114"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="116" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
-      <c r="A68" s="96"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="110"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
-      <c r="A69" s="96"/>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="110"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="48"/>
     </row>
     <row r="70" spans="1:4" ht="18.75">
-      <c r="A70" s="96"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="110"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="48"/>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A71" s="96"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="110"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="110"/>
-    </row>
-    <row r="73" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A73" s="98"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="111"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="48"/>
+    </row>
+    <row r="73" spans="1:4" ht="18.75">
+      <c r="A73" s="114"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="48"/>
+    </row>
+    <row r="74" spans="1:4" ht="18.75">
+      <c r="A74" s="114"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="48"/>
+    </row>
+    <row r="75" spans="1:4" ht="18.75">
+      <c r="A75" s="114"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="48"/>
+    </row>
+    <row r="76" spans="1:4" ht="18.75">
+      <c r="A76" s="114"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="48"/>
+    </row>
+    <row r="77" spans="1:4" ht="18.75">
+      <c r="A77" s="114"/>
+      <c r="B77" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A78" s="114"/>
+      <c r="B78" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="48"/>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A79" s="114"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="48"/>
+    </row>
+    <row r="80" spans="1:4" ht="18.75">
+      <c r="A80" s="114"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="48"/>
+    </row>
+    <row r="81" spans="1:4" ht="18.75">
+      <c r="A81" s="114"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="1:4" ht="18.75">
+      <c r="A82" s="114"/>
+      <c r="B82" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="41"/>
+    </row>
+    <row r="83" spans="1:4" ht="18.75">
+      <c r="A83" s="114"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="1:4" ht="18.75">
+      <c r="A84" s="114"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A85" s="114"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A86" s="114"/>
+      <c r="B86" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A87" s="114"/>
+      <c r="B87" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="1:4" ht="18.75">
+      <c r="A88" s="114"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="48"/>
+    </row>
+    <row r="89" spans="1:4" ht="18.75">
+      <c r="A89" s="114"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="48"/>
+    </row>
+    <row r="90" spans="1:4" ht="18.75">
+      <c r="A90" s="114"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="48"/>
+    </row>
+    <row r="91" spans="1:4" ht="18.75">
+      <c r="A91" s="114"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="48"/>
+    </row>
+    <row r="92" spans="1:4" ht="18.75">
+      <c r="A92" s="114"/>
+      <c r="B92" s="108"/>
+      <c r="C92" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="48"/>
+    </row>
+    <row r="93" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A93" s="114"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="48"/>
+    </row>
+    <row r="94" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A94" s="114"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A95" s="115"/>
+      <c r="B95" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.75">
+      <c r="A96" s="36"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="48"/>
+    </row>
+    <row r="97" spans="1:4" ht="18.75">
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="48"/>
+    </row>
+    <row r="98" spans="1:4" ht="18.75">
+      <c r="A98" s="36"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="48"/>
+    </row>
+    <row r="99" spans="1:4" ht="18.75">
+      <c r="A99" s="36"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="48"/>
+    </row>
+    <row r="100" spans="1:4" ht="18.75">
+      <c r="A100" s="36"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="48"/>
+    </row>
+    <row r="101" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A101" s="36"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="48"/>
+    </row>
+    <row r="102" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="48"/>
+    </row>
+    <row r="103" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A103" s="38"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
